--- a/data/trans_bre/P38B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Estudios-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_bre/P38B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,33%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,41; 7,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,58; 7,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; 8,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 8,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,74; 8,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,99; 9,36</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,15%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,77; 9,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,67; 8,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,84; 14,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,81; 11,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,54; 10,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,91; 19,79</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,33%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,55; 3,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 6,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 9,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,19; 4,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 8,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,11; 11,81</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,21%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,04; 7,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,9; 7,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,74; 11,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,84; 9,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,72; 9,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,9; 15,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Estudios-trans_bre.xlsx
@@ -614,7 +614,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,27%</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,17</t>
+          <t>1,81; 7,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 9,36</t>
+          <t>2,01; 9,25</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>13,5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>19,36%</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 14,02</t>
+          <t>2,67; 34,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 19,79</t>
+          <t>3,41; 68,54</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>7,0%</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 9,46</t>
+          <t>1,43; 10,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 11,81</t>
+          <t>1,65; 13,56</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>15,1%</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 11,56</t>
+          <t>4,45; 27,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 15,44</t>
+          <t>5,52; 45,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,41</t>
+          <t>2,31; 7,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,26</t>
+          <t>1,88; 7,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,96</t>
+          <t>1,71; 8,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,58</t>
+          <t>2,56; 8,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 8,27</t>
+          <t>2,08; 8,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 9,25</t>
+          <t>1,91; 9,41</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,77; 9,05</t>
+          <t>3,94; 9,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 8,56</t>
+          <t>3,57; 8,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 34,02</t>
+          <t>3,06; 37,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,81; 11,99</t>
+          <t>5,03; 11,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 10,97</t>
+          <t>4,43; 10,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 68,54</t>
+          <t>4,01; 80,37</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 3,66</t>
+          <t>-5,12; 3,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 6,8</t>
+          <t>-2,45; 7,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 10,74</t>
+          <t>2,04; 11,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 4,29</t>
+          <t>-5,71; 4,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 8,68</t>
+          <t>-2,94; 8,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 13,56</t>
+          <t>2,43; 15,27</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,45</t>
+          <t>3,99; 7,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,27</t>
+          <t>3,91; 7,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 27,76</t>
+          <t>4,14; 30,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,21</t>
+          <t>4,8; 9,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,72; 9,02</t>
+          <t>4,71; 8,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 45,82</t>
+          <t>5,18; 53,64</t>
         </is>
       </c>
     </row>
